--- a/LineGame/FireShip/parsheet/fgparsheet.xlsx
+++ b/LineGame/FireShip/parsheet/fgparsheet.xlsx
@@ -5,20 +5,27 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/terry_hsiesh/go/game/GameModule/parsheet/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/terry_hsiesh/Slot/LineGame/FireShip/parsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0647E5FD-FA4C-6242-B60B-4D369C5F8D1F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E0768B-A979-C84C-AB9C-C9A6757B45BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37580" yWindow="460" windowWidth="17720" windowHeight="21140" activeTab="2" xr2:uid="{13BB5AA7-1582-6F4B-9695-E5E1C1D8F7F8}"/>
+    <workbookView xWindow="-19220" yWindow="460" windowWidth="17720" windowHeight="21140" firstSheet="1" activeTab="8" xr2:uid="{13BB5AA7-1582-6F4B-9695-E5E1C1D8F7F8}"/>
   </bookViews>
   <sheets>
     <sheet name="rtp965" sheetId="1" r:id="rId1"/>
     <sheet name="rtp99" sheetId="3" r:id="rId2"/>
     <sheet name="rtp95" sheetId="5" r:id="rId3"/>
+    <sheet name="Bonus95" sheetId="7" r:id="rId4"/>
+    <sheet name="Bonus965" sheetId="6" r:id="rId5"/>
+    <sheet name="Bonus99" sheetId="8" r:id="rId6"/>
+    <sheet name="Weight95" sheetId="10" r:id="rId7"/>
+    <sheet name="Weight965" sheetId="9" r:id="rId8"/>
+    <sheet name="FGTable2" sheetId="12" r:id="rId9"/>
+    <sheet name="Weight99" sheetId="11" r:id="rId10"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId11"/>
   </externalReferences>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,6 +34,19 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="2">
+  <si>
+    <t>Table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RespinScatter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -56,12 +76,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -70,8 +105,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4091,6 +4129,80 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{394E899B-D7BC-7B4E-A09B-82B40C86439B}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1">
+        <v>199</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1">
+        <v>920</v>
+      </c>
+      <c r="C5" s="1">
+        <v>75</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C193E6D6-1D49-8847-BB91-8D4DC5DA4D6B}">
   <dimension ref="A1"/>
@@ -4110,7 +4222,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB0C62DE-0978-4E40-ABD2-53F5D6C7EEEC}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -4119,4 +4231,5111 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4ECD18A-2C5E-524C-A17F-49C2459E01DE}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>13</v>
+      </c>
+      <c r="C2">
+        <v>13</v>
+      </c>
+      <c r="D2">
+        <v>13</v>
+      </c>
+      <c r="E2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>13</v>
+      </c>
+      <c r="E3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>13</v>
+      </c>
+      <c r="D4">
+        <v>13</v>
+      </c>
+      <c r="E4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <v>13</v>
+      </c>
+      <c r="E5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <v>13</v>
+      </c>
+      <c r="E6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>13</v>
+      </c>
+      <c r="D7">
+        <v>13</v>
+      </c>
+      <c r="E7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>13</v>
+      </c>
+      <c r="D8">
+        <v>13</v>
+      </c>
+      <c r="E8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="B10">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>13</v>
+      </c>
+      <c r="D10">
+        <v>13</v>
+      </c>
+      <c r="E10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3052C315-56B3-BA42-A59D-46D257259B53}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>13</v>
+      </c>
+      <c r="C2">
+        <v>13</v>
+      </c>
+      <c r="D2">
+        <v>13</v>
+      </c>
+      <c r="E2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>13</v>
+      </c>
+      <c r="E3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>13</v>
+      </c>
+      <c r="D4">
+        <v>13</v>
+      </c>
+      <c r="E4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <v>13</v>
+      </c>
+      <c r="E5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <v>13</v>
+      </c>
+      <c r="E6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>13</v>
+      </c>
+      <c r="D7">
+        <v>13</v>
+      </c>
+      <c r="E7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>13</v>
+      </c>
+      <c r="D8">
+        <v>13</v>
+      </c>
+      <c r="E8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="B10">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>13</v>
+      </c>
+      <c r="D10">
+        <v>13</v>
+      </c>
+      <c r="E10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCB33F10-524C-C440-B16D-A02730344525}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>13</v>
+      </c>
+      <c r="C2">
+        <v>13</v>
+      </c>
+      <c r="D2">
+        <v>13</v>
+      </c>
+      <c r="E2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>13</v>
+      </c>
+      <c r="E3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>13</v>
+      </c>
+      <c r="D4">
+        <v>13</v>
+      </c>
+      <c r="E4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <v>13</v>
+      </c>
+      <c r="E5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <v>13</v>
+      </c>
+      <c r="E6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>13</v>
+      </c>
+      <c r="D7">
+        <v>13</v>
+      </c>
+      <c r="E7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>13</v>
+      </c>
+      <c r="D8">
+        <v>13</v>
+      </c>
+      <c r="E8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="B10">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>13</v>
+      </c>
+      <c r="D10">
+        <v>13</v>
+      </c>
+      <c r="E10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA0D71FF-8284-1B41-BDF3-2C1074FBAE4E}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1">
+        <v>199</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1">
+        <v>920</v>
+      </c>
+      <c r="C5" s="1">
+        <v>75</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E603FDC4-3390-AE42-A2C6-41CA73123FA8}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J47" sqref="J47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1">
+        <v>199</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1">
+        <v>920</v>
+      </c>
+      <c r="C5" s="1">
+        <v>75</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32425055-6FC9-F448-88EB-E550FFFAF744}">
+  <dimension ref="A1:E328"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>9</v>
+      </c>
+      <c r="B14">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>9</v>
+      </c>
+      <c r="E14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>9</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>12</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>10</v>
+      </c>
+      <c r="D18">
+        <v>8</v>
+      </c>
+      <c r="E18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>12</v>
+      </c>
+      <c r="E19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>7</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>8</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>4</v>
+      </c>
+      <c r="E22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>7</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>4</v>
+      </c>
+      <c r="E24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>9</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <v>7</v>
+      </c>
+      <c r="E25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>5</v>
+      </c>
+      <c r="B26">
+        <v>10</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>5</v>
+      </c>
+      <c r="E26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>9</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>10</v>
+      </c>
+      <c r="B28">
+        <v>9</v>
+      </c>
+      <c r="C28">
+        <v>12</v>
+      </c>
+      <c r="D28">
+        <v>4</v>
+      </c>
+      <c r="E28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>9</v>
+      </c>
+      <c r="D29">
+        <v>5</v>
+      </c>
+      <c r="E29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>8</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>4</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>5</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <v>9</v>
+      </c>
+      <c r="E32">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>5</v>
+      </c>
+      <c r="B33">
+        <v>10</v>
+      </c>
+      <c r="C33">
+        <v>8</v>
+      </c>
+      <c r="D33">
+        <v>7</v>
+      </c>
+      <c r="E33">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>4</v>
+      </c>
+      <c r="B34">
+        <v>12</v>
+      </c>
+      <c r="C34">
+        <v>6</v>
+      </c>
+      <c r="D34">
+        <v>6</v>
+      </c>
+      <c r="E34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>7</v>
+      </c>
+      <c r="B35">
+        <v>8</v>
+      </c>
+      <c r="C35">
+        <v>5</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="B36">
+        <v>8</v>
+      </c>
+      <c r="C36">
+        <v>7</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="B37">
+        <v>5</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>9</v>
+      </c>
+      <c r="E37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>5</v>
+      </c>
+      <c r="D38">
+        <v>5</v>
+      </c>
+      <c r="E38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="B39">
+        <v>10</v>
+      </c>
+      <c r="C39">
+        <v>11</v>
+      </c>
+      <c r="D39">
+        <v>6</v>
+      </c>
+      <c r="E39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="B40">
+        <v>9</v>
+      </c>
+      <c r="C40">
+        <v>8</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="B41">
+        <v>5</v>
+      </c>
+      <c r="C41">
+        <v>5</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>4</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="B43">
+        <v>7</v>
+      </c>
+      <c r="C43">
+        <v>3</v>
+      </c>
+      <c r="D43">
+        <v>9</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="B44">
+        <v>9</v>
+      </c>
+      <c r="C44">
+        <v>7</v>
+      </c>
+      <c r="D44">
+        <v>4</v>
+      </c>
+      <c r="E44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="B45">
+        <v>4</v>
+      </c>
+      <c r="C45">
+        <v>6</v>
+      </c>
+      <c r="D45">
+        <v>3</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="B46">
+        <v>3</v>
+      </c>
+      <c r="C46">
+        <v>4</v>
+      </c>
+      <c r="D46">
+        <v>8</v>
+      </c>
+      <c r="E46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="B47">
+        <v>4</v>
+      </c>
+      <c r="C47">
+        <v>3</v>
+      </c>
+      <c r="D47">
+        <v>11</v>
+      </c>
+      <c r="E47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="B48">
+        <v>3</v>
+      </c>
+      <c r="C48">
+        <v>8</v>
+      </c>
+      <c r="D48">
+        <v>7</v>
+      </c>
+      <c r="E48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5">
+      <c r="B49">
+        <v>4</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5">
+      <c r="B50">
+        <v>3</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+      <c r="D50">
+        <v>7</v>
+      </c>
+      <c r="E50">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5">
+      <c r="B51">
+        <v>5</v>
+      </c>
+      <c r="C51">
+        <v>6</v>
+      </c>
+      <c r="D51">
+        <v>9</v>
+      </c>
+      <c r="E51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5">
+      <c r="B52">
+        <v>11</v>
+      </c>
+      <c r="C52">
+        <v>9</v>
+      </c>
+      <c r="D52">
+        <v>7</v>
+      </c>
+      <c r="E52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5">
+      <c r="B53">
+        <v>5</v>
+      </c>
+      <c r="C53">
+        <v>4</v>
+      </c>
+      <c r="D53">
+        <v>4</v>
+      </c>
+      <c r="E53">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5">
+      <c r="B54">
+        <v>6</v>
+      </c>
+      <c r="C54">
+        <v>3</v>
+      </c>
+      <c r="D54">
+        <v>3</v>
+      </c>
+      <c r="E54">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5">
+      <c r="B55">
+        <v>10</v>
+      </c>
+      <c r="C55">
+        <v>4</v>
+      </c>
+      <c r="D55">
+        <v>6</v>
+      </c>
+      <c r="E55">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5">
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56">
+        <v>8</v>
+      </c>
+      <c r="D56">
+        <v>7</v>
+      </c>
+      <c r="E56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5">
+      <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="C57">
+        <v>12</v>
+      </c>
+      <c r="D57">
+        <v>4</v>
+      </c>
+      <c r="E57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5">
+      <c r="B58">
+        <v>7</v>
+      </c>
+      <c r="C58">
+        <v>7</v>
+      </c>
+      <c r="D58">
+        <v>3</v>
+      </c>
+      <c r="E58">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5">
+      <c r="B59">
+        <v>11</v>
+      </c>
+      <c r="C59">
+        <v>4</v>
+      </c>
+      <c r="D59">
+        <v>10</v>
+      </c>
+      <c r="E59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5">
+      <c r="B60">
+        <v>7</v>
+      </c>
+      <c r="C60">
+        <v>3</v>
+      </c>
+      <c r="D60">
+        <v>10</v>
+      </c>
+      <c r="E60">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5">
+      <c r="B61">
+        <v>8</v>
+      </c>
+      <c r="C61">
+        <v>5</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
+      </c>
+      <c r="E61">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5">
+      <c r="B62">
+        <v>5</v>
+      </c>
+      <c r="C62">
+        <v>2</v>
+      </c>
+      <c r="D62">
+        <v>8</v>
+      </c>
+      <c r="E62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5">
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63">
+        <v>2</v>
+      </c>
+      <c r="D63">
+        <v>4</v>
+      </c>
+      <c r="E63">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5">
+      <c r="B64">
+        <v>10</v>
+      </c>
+      <c r="C64">
+        <v>2</v>
+      </c>
+      <c r="D64">
+        <v>10</v>
+      </c>
+      <c r="E64">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5">
+      <c r="B65">
+        <v>4</v>
+      </c>
+      <c r="C65">
+        <v>6</v>
+      </c>
+      <c r="D65">
+        <v>5</v>
+      </c>
+      <c r="E65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5">
+      <c r="B66">
+        <v>3</v>
+      </c>
+      <c r="C66">
+        <v>9</v>
+      </c>
+      <c r="D66">
+        <v>3</v>
+      </c>
+      <c r="E66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5">
+      <c r="B67">
+        <v>5</v>
+      </c>
+      <c r="C67">
+        <v>4</v>
+      </c>
+      <c r="D67">
+        <v>4</v>
+      </c>
+      <c r="E67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5">
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>3</v>
+      </c>
+      <c r="D68">
+        <v>3</v>
+      </c>
+      <c r="E68">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5">
+      <c r="B69">
+        <v>7</v>
+      </c>
+      <c r="C69">
+        <v>5</v>
+      </c>
+      <c r="D69">
+        <v>9</v>
+      </c>
+      <c r="E69">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5">
+      <c r="B70">
+        <v>8</v>
+      </c>
+      <c r="C70">
+        <v>8</v>
+      </c>
+      <c r="D70">
+        <v>5</v>
+      </c>
+      <c r="E70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5">
+      <c r="B71">
+        <v>8</v>
+      </c>
+      <c r="C71">
+        <v>4</v>
+      </c>
+      <c r="D71">
+        <v>2</v>
+      </c>
+      <c r="E71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5">
+      <c r="B72">
+        <v>4</v>
+      </c>
+      <c r="C72">
+        <v>3</v>
+      </c>
+      <c r="D72">
+        <v>2</v>
+      </c>
+      <c r="E72">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5">
+      <c r="B73">
+        <v>3</v>
+      </c>
+      <c r="C73">
+        <v>4</v>
+      </c>
+      <c r="D73">
+        <v>8</v>
+      </c>
+      <c r="E73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5">
+      <c r="B74">
+        <v>4</v>
+      </c>
+      <c r="C74">
+        <v>3</v>
+      </c>
+      <c r="D74">
+        <v>12</v>
+      </c>
+      <c r="E74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5">
+      <c r="B75">
+        <v>3</v>
+      </c>
+      <c r="C75">
+        <v>5</v>
+      </c>
+      <c r="D75">
+        <v>5</v>
+      </c>
+      <c r="E75">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5">
+      <c r="B76">
+        <v>5</v>
+      </c>
+      <c r="C76">
+        <v>2</v>
+      </c>
+      <c r="D76">
+        <v>3</v>
+      </c>
+      <c r="E76">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5">
+      <c r="B77">
+        <v>12</v>
+      </c>
+      <c r="C77">
+        <v>8</v>
+      </c>
+      <c r="D77">
+        <v>4</v>
+      </c>
+      <c r="E77">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5">
+      <c r="B78">
+        <v>5</v>
+      </c>
+      <c r="C78">
+        <v>5</v>
+      </c>
+      <c r="D78">
+        <v>3</v>
+      </c>
+      <c r="E78">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5">
+      <c r="B79">
+        <v>6</v>
+      </c>
+      <c r="C79">
+        <v>3</v>
+      </c>
+      <c r="D79">
+        <v>4</v>
+      </c>
+      <c r="E79">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5">
+      <c r="B80">
+        <v>10</v>
+      </c>
+      <c r="C80">
+        <v>4</v>
+      </c>
+      <c r="D80">
+        <v>7</v>
+      </c>
+      <c r="E80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5">
+      <c r="B81">
+        <v>2</v>
+      </c>
+      <c r="C81">
+        <v>3</v>
+      </c>
+      <c r="D81">
+        <v>5</v>
+      </c>
+      <c r="E81">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5">
+      <c r="B82">
+        <v>2</v>
+      </c>
+      <c r="C82">
+        <v>7</v>
+      </c>
+      <c r="D82">
+        <v>3</v>
+      </c>
+      <c r="E82">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5">
+      <c r="B83">
+        <v>7</v>
+      </c>
+      <c r="C83">
+        <v>5</v>
+      </c>
+      <c r="D83">
+        <v>4</v>
+      </c>
+      <c r="E83">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5">
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84">
+        <v>7</v>
+      </c>
+      <c r="D84">
+        <v>5</v>
+      </c>
+      <c r="E84">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5">
+      <c r="B85">
+        <v>7</v>
+      </c>
+      <c r="C85">
+        <v>8</v>
+      </c>
+      <c r="D85">
+        <v>8</v>
+      </c>
+      <c r="E85">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5">
+      <c r="B86">
+        <v>3</v>
+      </c>
+      <c r="C86">
+        <v>2</v>
+      </c>
+      <c r="D86">
+        <v>12</v>
+      </c>
+      <c r="E86">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5">
+      <c r="B87">
+        <v>9</v>
+      </c>
+      <c r="C87">
+        <v>2</v>
+      </c>
+      <c r="D87">
+        <v>9</v>
+      </c>
+      <c r="E87">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5">
+      <c r="B88">
+        <v>12</v>
+      </c>
+      <c r="C88">
+        <v>10</v>
+      </c>
+      <c r="D88">
+        <v>7</v>
+      </c>
+      <c r="E88">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5">
+      <c r="B89">
+        <v>8</v>
+      </c>
+      <c r="C89">
+        <v>9</v>
+      </c>
+      <c r="D89">
+        <v>6</v>
+      </c>
+      <c r="E89">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5">
+      <c r="B90">
+        <v>3</v>
+      </c>
+      <c r="C90">
+        <v>3</v>
+      </c>
+      <c r="D90">
+        <v>2</v>
+      </c>
+      <c r="E90">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5">
+      <c r="B91">
+        <v>4</v>
+      </c>
+      <c r="C91">
+        <v>4</v>
+      </c>
+      <c r="D91">
+        <v>2</v>
+      </c>
+      <c r="E91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5">
+      <c r="B92">
+        <v>3</v>
+      </c>
+      <c r="C92">
+        <v>3</v>
+      </c>
+      <c r="D92">
+        <v>9</v>
+      </c>
+      <c r="E92">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5">
+      <c r="B93">
+        <v>4</v>
+      </c>
+      <c r="C93">
+        <v>4</v>
+      </c>
+      <c r="D93">
+        <v>12</v>
+      </c>
+      <c r="E93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5">
+      <c r="B94">
+        <v>7</v>
+      </c>
+      <c r="C94">
+        <v>5</v>
+      </c>
+      <c r="D94">
+        <v>6</v>
+      </c>
+      <c r="E94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5">
+      <c r="B95">
+        <v>10</v>
+      </c>
+      <c r="C95">
+        <v>10</v>
+      </c>
+      <c r="D95">
+        <v>2</v>
+      </c>
+      <c r="E95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5">
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="C96">
+        <v>5</v>
+      </c>
+      <c r="D96">
+        <v>2</v>
+      </c>
+      <c r="E96">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5">
+      <c r="B97">
+        <v>8</v>
+      </c>
+      <c r="C97">
+        <v>12</v>
+      </c>
+      <c r="D97">
+        <v>2</v>
+      </c>
+      <c r="E97">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5">
+      <c r="B98">
+        <v>5</v>
+      </c>
+      <c r="C98">
+        <v>8</v>
+      </c>
+      <c r="D98">
+        <v>9</v>
+      </c>
+      <c r="E98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5">
+      <c r="B99">
+        <v>7</v>
+      </c>
+      <c r="C99">
+        <v>5</v>
+      </c>
+      <c r="D99">
+        <v>4</v>
+      </c>
+      <c r="E99">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5">
+      <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="C100">
+        <v>10</v>
+      </c>
+      <c r="D100">
+        <v>3</v>
+      </c>
+      <c r="E100">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5">
+      <c r="B101">
+        <v>9</v>
+      </c>
+      <c r="C101">
+        <v>3</v>
+      </c>
+      <c r="D101">
+        <v>8</v>
+      </c>
+      <c r="E101">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5">
+      <c r="B102">
+        <v>5</v>
+      </c>
+      <c r="C102">
+        <v>4</v>
+      </c>
+      <c r="D102">
+        <v>2</v>
+      </c>
+      <c r="E102">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5">
+      <c r="B103">
+        <v>7</v>
+      </c>
+      <c r="C103">
+        <v>3</v>
+      </c>
+      <c r="D103">
+        <v>2</v>
+      </c>
+      <c r="E103">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5">
+      <c r="B104">
+        <v>4</v>
+      </c>
+      <c r="C104">
+        <v>4</v>
+      </c>
+      <c r="D104">
+        <v>2</v>
+      </c>
+      <c r="E104">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5">
+      <c r="B105">
+        <v>3</v>
+      </c>
+      <c r="C105">
+        <v>8</v>
+      </c>
+      <c r="D105">
+        <v>7</v>
+      </c>
+      <c r="E105">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5">
+      <c r="B106">
+        <v>10</v>
+      </c>
+      <c r="C106">
+        <v>9</v>
+      </c>
+      <c r="D106">
+        <v>4</v>
+      </c>
+      <c r="E106">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5">
+      <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="C107">
+        <v>3</v>
+      </c>
+      <c r="D107">
+        <v>3</v>
+      </c>
+      <c r="E107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5">
+      <c r="B108">
+        <v>9</v>
+      </c>
+      <c r="C108">
+        <v>4</v>
+      </c>
+      <c r="D108">
+        <v>4</v>
+      </c>
+      <c r="E108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5">
+      <c r="B109">
+        <v>2</v>
+      </c>
+      <c r="C109">
+        <v>3</v>
+      </c>
+      <c r="D109">
+        <v>3</v>
+      </c>
+      <c r="E109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5">
+      <c r="B110">
+        <v>2</v>
+      </c>
+      <c r="C110">
+        <v>8</v>
+      </c>
+      <c r="D110">
+        <v>6</v>
+      </c>
+      <c r="E110">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5">
+      <c r="B111">
+        <v>2</v>
+      </c>
+      <c r="C111">
+        <v>6</v>
+      </c>
+      <c r="D111">
+        <v>7</v>
+      </c>
+      <c r="E111">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5">
+      <c r="B112">
+        <v>5</v>
+      </c>
+      <c r="C112">
+        <v>9</v>
+      </c>
+      <c r="D112">
+        <v>4</v>
+      </c>
+      <c r="E112">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="2:5">
+      <c r="B113">
+        <v>10</v>
+      </c>
+      <c r="C113">
+        <v>7</v>
+      </c>
+      <c r="D113">
+        <v>3</v>
+      </c>
+      <c r="E113">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114" spans="2:5">
+      <c r="B114">
+        <v>1</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+      <c r="D114">
+        <v>10</v>
+      </c>
+      <c r="E114">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="115" spans="2:5">
+      <c r="B115">
+        <v>8</v>
+      </c>
+      <c r="C115">
+        <v>5</v>
+      </c>
+      <c r="D115">
+        <v>7</v>
+      </c>
+      <c r="E115">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" spans="2:5">
+      <c r="B116">
+        <v>8</v>
+      </c>
+      <c r="C116">
+        <v>11</v>
+      </c>
+      <c r="D116">
+        <v>4</v>
+      </c>
+      <c r="E116">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="2:5">
+      <c r="B117">
+        <v>4</v>
+      </c>
+      <c r="C117">
+        <v>8</v>
+      </c>
+      <c r="D117">
+        <v>3</v>
+      </c>
+      <c r="E117">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5">
+      <c r="B118">
+        <v>3</v>
+      </c>
+      <c r="C118">
+        <v>5</v>
+      </c>
+      <c r="D118">
+        <v>6</v>
+      </c>
+      <c r="E118">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="2:5">
+      <c r="B119">
+        <v>10</v>
+      </c>
+      <c r="C119">
+        <v>4</v>
+      </c>
+      <c r="D119">
+        <v>7</v>
+      </c>
+      <c r="E119">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="2:5">
+      <c r="B120">
+        <v>4</v>
+      </c>
+      <c r="C120">
+        <v>3</v>
+      </c>
+      <c r="D120">
+        <v>4</v>
+      </c>
+      <c r="E120">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="2:5">
+      <c r="B121">
+        <v>3</v>
+      </c>
+      <c r="C121">
+        <v>7</v>
+      </c>
+      <c r="D121">
+        <v>3</v>
+      </c>
+      <c r="E121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="2:5">
+      <c r="B122">
+        <v>5</v>
+      </c>
+      <c r="C122">
+        <v>6</v>
+      </c>
+      <c r="D122">
+        <v>10</v>
+      </c>
+      <c r="E122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="2:5">
+      <c r="B123">
+        <v>1</v>
+      </c>
+      <c r="C123">
+        <v>4</v>
+      </c>
+      <c r="D123">
+        <v>7</v>
+      </c>
+      <c r="E123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="2:5">
+      <c r="B124">
+        <v>5</v>
+      </c>
+      <c r="C124">
+        <v>3</v>
+      </c>
+      <c r="D124">
+        <v>4</v>
+      </c>
+      <c r="E124">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="2:5">
+      <c r="B125">
+        <v>8</v>
+      </c>
+      <c r="C125">
+        <v>8</v>
+      </c>
+      <c r="D125">
+        <v>3</v>
+      </c>
+      <c r="E125">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="2:5">
+      <c r="B126">
+        <v>8</v>
+      </c>
+      <c r="C126">
+        <v>7</v>
+      </c>
+      <c r="D126">
+        <v>6</v>
+      </c>
+      <c r="E126">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="2:5">
+      <c r="B127">
+        <v>1</v>
+      </c>
+      <c r="C127">
+        <v>5</v>
+      </c>
+      <c r="D127">
+        <v>7</v>
+      </c>
+      <c r="E127">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128" spans="2:5">
+      <c r="B128">
+        <v>10</v>
+      </c>
+      <c r="C128">
+        <v>6</v>
+      </c>
+      <c r="D128">
+        <v>4</v>
+      </c>
+      <c r="E128">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="2:5">
+      <c r="B129">
+        <v>4</v>
+      </c>
+      <c r="C129">
+        <v>9</v>
+      </c>
+      <c r="D129">
+        <v>3</v>
+      </c>
+      <c r="E129">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" spans="2:5">
+      <c r="B130">
+        <v>3</v>
+      </c>
+      <c r="C130">
+        <v>4</v>
+      </c>
+      <c r="D130">
+        <v>10</v>
+      </c>
+      <c r="E130">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="131" spans="2:5">
+      <c r="B131">
+        <v>5</v>
+      </c>
+      <c r="C131">
+        <v>3</v>
+      </c>
+      <c r="D131">
+        <v>7</v>
+      </c>
+      <c r="E131">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132" spans="2:5">
+      <c r="B132">
+        <v>2</v>
+      </c>
+      <c r="C132">
+        <v>4</v>
+      </c>
+      <c r="D132">
+        <v>4</v>
+      </c>
+      <c r="E132">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" spans="2:5">
+      <c r="B133">
+        <v>5</v>
+      </c>
+      <c r="C133">
+        <v>8</v>
+      </c>
+      <c r="D133">
+        <v>3</v>
+      </c>
+      <c r="E133">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134" spans="2:5">
+      <c r="B134">
+        <v>1</v>
+      </c>
+      <c r="C134">
+        <v>5</v>
+      </c>
+      <c r="D134">
+        <v>6</v>
+      </c>
+      <c r="E134">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="2:5">
+      <c r="B135">
+        <v>10</v>
+      </c>
+      <c r="C135">
+        <v>7</v>
+      </c>
+      <c r="D135">
+        <v>7</v>
+      </c>
+      <c r="E135">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" spans="2:5">
+      <c r="B136">
+        <v>2</v>
+      </c>
+      <c r="C136">
+        <v>4</v>
+      </c>
+      <c r="D136">
+        <v>4</v>
+      </c>
+      <c r="E136">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137" spans="2:5">
+      <c r="B137">
+        <v>2</v>
+      </c>
+      <c r="C137">
+        <v>3</v>
+      </c>
+      <c r="D137">
+        <v>3</v>
+      </c>
+      <c r="E137">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" spans="2:5">
+      <c r="B138">
+        <v>7</v>
+      </c>
+      <c r="C138">
+        <v>5</v>
+      </c>
+      <c r="D138">
+        <v>10</v>
+      </c>
+      <c r="E138">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" spans="2:5">
+      <c r="B139">
+        <v>1</v>
+      </c>
+      <c r="C139">
+        <v>2</v>
+      </c>
+      <c r="D139">
+        <v>7</v>
+      </c>
+      <c r="E139">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="140" spans="2:5">
+      <c r="B140">
+        <v>7</v>
+      </c>
+      <c r="C140">
+        <v>2</v>
+      </c>
+      <c r="D140">
+        <v>4</v>
+      </c>
+      <c r="E140">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141" spans="2:5">
+      <c r="B141">
+        <v>8</v>
+      </c>
+      <c r="C141">
+        <v>2</v>
+      </c>
+      <c r="D141">
+        <v>3</v>
+      </c>
+      <c r="E141">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" spans="2:5">
+      <c r="B142">
+        <v>9</v>
+      </c>
+      <c r="C142">
+        <v>6</v>
+      </c>
+      <c r="D142">
+        <v>6</v>
+      </c>
+      <c r="E142">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="2:5">
+      <c r="B143">
+        <v>1</v>
+      </c>
+      <c r="C143">
+        <v>9</v>
+      </c>
+      <c r="D143">
+        <v>7</v>
+      </c>
+      <c r="E143">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144" spans="2:5">
+      <c r="B144">
+        <v>10</v>
+      </c>
+      <c r="C144">
+        <v>4</v>
+      </c>
+      <c r="D144">
+        <v>4</v>
+      </c>
+      <c r="E144">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="2:5">
+      <c r="B145">
+        <v>4</v>
+      </c>
+      <c r="C145">
+        <v>3</v>
+      </c>
+      <c r="D145">
+        <v>3</v>
+      </c>
+      <c r="E145">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="2:5">
+      <c r="B146">
+        <v>3</v>
+      </c>
+      <c r="C146">
+        <v>5</v>
+      </c>
+      <c r="D146">
+        <v>10</v>
+      </c>
+      <c r="E146">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147" spans="2:5">
+      <c r="B147">
+        <v>5</v>
+      </c>
+      <c r="C147">
+        <v>8</v>
+      </c>
+      <c r="D147">
+        <v>7</v>
+      </c>
+      <c r="E147">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148" spans="2:5">
+      <c r="B148">
+        <v>4</v>
+      </c>
+      <c r="C148">
+        <v>4</v>
+      </c>
+      <c r="D148">
+        <v>4</v>
+      </c>
+      <c r="E148">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="2:5">
+      <c r="B149">
+        <v>3</v>
+      </c>
+      <c r="C149">
+        <v>3</v>
+      </c>
+      <c r="D149">
+        <v>3</v>
+      </c>
+      <c r="E149">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="2:5">
+      <c r="B150">
+        <v>8</v>
+      </c>
+      <c r="C150">
+        <v>4</v>
+      </c>
+      <c r="D150">
+        <v>6</v>
+      </c>
+      <c r="E150">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151" spans="2:5">
+      <c r="B151">
+        <v>8</v>
+      </c>
+      <c r="C151">
+        <v>3</v>
+      </c>
+      <c r="D151">
+        <v>7</v>
+      </c>
+      <c r="E151">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="2:5">
+      <c r="B152">
+        <v>4</v>
+      </c>
+      <c r="C152">
+        <v>5</v>
+      </c>
+      <c r="D152">
+        <v>4</v>
+      </c>
+      <c r="E152">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153" spans="2:5">
+      <c r="B153">
+        <v>3</v>
+      </c>
+      <c r="C153">
+        <v>2</v>
+      </c>
+      <c r="D153">
+        <v>3</v>
+      </c>
+      <c r="E153">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="2:5">
+      <c r="B154">
+        <v>4</v>
+      </c>
+      <c r="C154">
+        <v>8</v>
+      </c>
+      <c r="D154">
+        <v>10</v>
+      </c>
+      <c r="E154">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155" spans="2:5">
+      <c r="B155">
+        <v>3</v>
+      </c>
+      <c r="C155">
+        <v>8</v>
+      </c>
+      <c r="D155">
+        <v>1</v>
+      </c>
+      <c r="E155">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="156" spans="2:5">
+      <c r="B156">
+        <v>5</v>
+      </c>
+      <c r="C156">
+        <v>5</v>
+      </c>
+      <c r="D156">
+        <v>6</v>
+      </c>
+      <c r="E156">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157" spans="2:5">
+      <c r="B157">
+        <v>2</v>
+      </c>
+      <c r="C157">
+        <v>6</v>
+      </c>
+      <c r="D157">
+        <v>5</v>
+      </c>
+      <c r="E157">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158" spans="2:5">
+      <c r="B158">
+        <v>5</v>
+      </c>
+      <c r="C158">
+        <v>4</v>
+      </c>
+      <c r="D158">
+        <v>2</v>
+      </c>
+      <c r="E158">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="2:5">
+      <c r="B159">
+        <v>1</v>
+      </c>
+      <c r="C159">
+        <v>3</v>
+      </c>
+      <c r="D159">
+        <v>2</v>
+      </c>
+      <c r="E159">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="160" spans="2:5">
+      <c r="B160">
+        <v>10</v>
+      </c>
+      <c r="C160">
+        <v>4</v>
+      </c>
+      <c r="D160">
+        <v>2</v>
+      </c>
+      <c r="E160">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161" spans="2:5">
+      <c r="B161">
+        <v>2</v>
+      </c>
+      <c r="C161">
+        <v>7</v>
+      </c>
+      <c r="D161">
+        <v>8</v>
+      </c>
+      <c r="E161">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="162" spans="2:5">
+      <c r="B162">
+        <v>2</v>
+      </c>
+      <c r="C162">
+        <v>8</v>
+      </c>
+      <c r="D162">
+        <v>4</v>
+      </c>
+      <c r="E162">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163" spans="2:5">
+      <c r="B163">
+        <v>7</v>
+      </c>
+      <c r="C163">
+        <v>2</v>
+      </c>
+      <c r="D163">
+        <v>10</v>
+      </c>
+      <c r="E163">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164" spans="2:5">
+      <c r="B164">
+        <v>8</v>
+      </c>
+      <c r="C164">
+        <v>2</v>
+      </c>
+      <c r="D164">
+        <v>5</v>
+      </c>
+      <c r="E164">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165" spans="2:5">
+      <c r="B165">
+        <v>1</v>
+      </c>
+      <c r="C165">
+        <v>10</v>
+      </c>
+      <c r="D165">
+        <v>3</v>
+      </c>
+      <c r="E165">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="166" spans="2:5">
+      <c r="B166">
+        <v>5</v>
+      </c>
+      <c r="C166">
+        <v>9</v>
+      </c>
+      <c r="D166">
+        <v>5</v>
+      </c>
+      <c r="E166">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167" spans="2:5">
+      <c r="B167">
+        <v>7</v>
+      </c>
+      <c r="C167">
+        <v>3</v>
+      </c>
+      <c r="D167">
+        <v>1</v>
+      </c>
+      <c r="E167">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168" spans="2:5">
+      <c r="B168">
+        <v>3</v>
+      </c>
+      <c r="C168">
+        <v>4</v>
+      </c>
+      <c r="D168">
+        <v>9</v>
+      </c>
+      <c r="E168">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169" spans="2:5">
+      <c r="B169">
+        <v>4</v>
+      </c>
+      <c r="C169">
+        <v>3</v>
+      </c>
+      <c r="D169">
+        <v>5</v>
+      </c>
+      <c r="E169">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170" spans="2:5">
+      <c r="B170">
+        <v>3</v>
+      </c>
+      <c r="C170">
+        <v>5</v>
+      </c>
+      <c r="D170">
+        <v>2</v>
+      </c>
+      <c r="E170">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="171" spans="2:5">
+      <c r="B171">
+        <v>9</v>
+      </c>
+      <c r="C171">
+        <v>5</v>
+      </c>
+      <c r="D171">
+        <v>2</v>
+      </c>
+      <c r="E171">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="2:5">
+      <c r="B172">
+        <v>1</v>
+      </c>
+      <c r="C172">
+        <v>10</v>
+      </c>
+      <c r="D172">
+        <v>8</v>
+      </c>
+      <c r="E172">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="2:5">
+      <c r="B173">
+        <v>8</v>
+      </c>
+      <c r="C173">
+        <v>2</v>
+      </c>
+      <c r="D173">
+        <v>1</v>
+      </c>
+      <c r="E173">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="2:5">
+      <c r="B174">
+        <v>3</v>
+      </c>
+      <c r="C174">
+        <v>2</v>
+      </c>
+      <c r="D174">
+        <v>5</v>
+      </c>
+      <c r="E174">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175" spans="2:5">
+      <c r="B175">
+        <v>4</v>
+      </c>
+      <c r="C175">
+        <v>8</v>
+      </c>
+      <c r="D175">
+        <v>3</v>
+      </c>
+      <c r="E175">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="176" spans="2:5">
+      <c r="B176">
+        <v>3</v>
+      </c>
+      <c r="C176">
+        <v>3</v>
+      </c>
+      <c r="D176">
+        <v>4</v>
+      </c>
+      <c r="E176">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="2:5">
+      <c r="B177">
+        <v>4</v>
+      </c>
+      <c r="C177">
+        <v>4</v>
+      </c>
+      <c r="D177">
+        <v>3</v>
+      </c>
+      <c r="E177">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="178" spans="2:5">
+      <c r="B178">
+        <v>7</v>
+      </c>
+      <c r="C178">
+        <v>3</v>
+      </c>
+      <c r="D178">
+        <v>4</v>
+      </c>
+      <c r="E178">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="179" spans="2:5">
+      <c r="B179">
+        <v>10</v>
+      </c>
+      <c r="C179">
+        <v>4</v>
+      </c>
+      <c r="D179">
+        <v>7</v>
+      </c>
+      <c r="E179">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="2:5">
+      <c r="B180">
+        <v>3</v>
+      </c>
+      <c r="C180">
+        <v>3</v>
+      </c>
+      <c r="D180">
+        <v>5</v>
+      </c>
+      <c r="E180">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="181" spans="2:5">
+      <c r="B181">
+        <v>4</v>
+      </c>
+      <c r="C181">
+        <v>9</v>
+      </c>
+      <c r="D181">
+        <v>3</v>
+      </c>
+      <c r="E181">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="182" spans="2:5">
+      <c r="B182">
+        <v>5</v>
+      </c>
+      <c r="C182">
+        <v>7</v>
+      </c>
+      <c r="D182">
+        <v>4</v>
+      </c>
+      <c r="E182">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="183" spans="2:5">
+      <c r="B183">
+        <v>5</v>
+      </c>
+      <c r="C183">
+        <v>9</v>
+      </c>
+      <c r="D183">
+        <v>5</v>
+      </c>
+      <c r="E183">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="184" spans="2:5">
+      <c r="B184">
+        <v>2</v>
+      </c>
+      <c r="C184">
+        <v>3</v>
+      </c>
+      <c r="D184">
+        <v>1</v>
+      </c>
+      <c r="E184">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" spans="2:5">
+      <c r="B185">
+        <v>2</v>
+      </c>
+      <c r="C185">
+        <v>4</v>
+      </c>
+      <c r="D185">
+        <v>8</v>
+      </c>
+      <c r="E185">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="186" spans="2:5">
+      <c r="B186">
+        <v>2</v>
+      </c>
+      <c r="C186">
+        <v>3</v>
+      </c>
+      <c r="D186">
+        <v>9</v>
+      </c>
+      <c r="E186">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="187" spans="2:5">
+      <c r="B187">
+        <v>7</v>
+      </c>
+      <c r="C187">
+        <v>8</v>
+      </c>
+      <c r="D187">
+        <v>7</v>
+      </c>
+      <c r="E187">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="188" spans="2:5">
+      <c r="B188">
+        <v>4</v>
+      </c>
+      <c r="C188">
+        <v>6</v>
+      </c>
+      <c r="D188">
+        <v>6</v>
+      </c>
+      <c r="E188">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="189" spans="2:5">
+      <c r="B189">
+        <v>3</v>
+      </c>
+      <c r="C189">
+        <v>11</v>
+      </c>
+      <c r="D189">
+        <v>2</v>
+      </c>
+      <c r="E189">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="190" spans="2:5">
+      <c r="B190">
+        <v>10</v>
+      </c>
+      <c r="C190">
+        <v>7</v>
+      </c>
+      <c r="D190">
+        <v>2</v>
+      </c>
+      <c r="E190">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="191" spans="2:5">
+      <c r="B191">
+        <v>1</v>
+      </c>
+      <c r="C191">
+        <v>7</v>
+      </c>
+      <c r="D191">
+        <v>9</v>
+      </c>
+      <c r="E191">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192" spans="2:5">
+      <c r="B192">
+        <v>9</v>
+      </c>
+      <c r="C192">
+        <v>5</v>
+      </c>
+      <c r="D192">
+        <v>1</v>
+      </c>
+      <c r="E192">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="193" spans="2:5">
+      <c r="B193">
+        <v>2</v>
+      </c>
+      <c r="C193">
+        <v>3</v>
+      </c>
+      <c r="D193">
+        <v>6</v>
+      </c>
+      <c r="E193">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="194" spans="2:5">
+      <c r="B194">
+        <v>2</v>
+      </c>
+      <c r="C194">
+        <v>8</v>
+      </c>
+      <c r="D194">
+        <v>2</v>
+      </c>
+      <c r="E194">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="2:5">
+      <c r="B195">
+        <v>2</v>
+      </c>
+      <c r="C195">
+        <v>5</v>
+      </c>
+      <c r="D195">
+        <v>2</v>
+      </c>
+      <c r="E195">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="2:5">
+      <c r="B196">
+        <v>5</v>
+      </c>
+      <c r="C196">
+        <v>4</v>
+      </c>
+      <c r="D196">
+        <v>2</v>
+      </c>
+      <c r="E196">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="197" spans="2:5">
+      <c r="B197">
+        <v>10</v>
+      </c>
+      <c r="C197">
+        <v>3</v>
+      </c>
+      <c r="D197">
+        <v>9</v>
+      </c>
+      <c r="E197">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="198" spans="2:5">
+      <c r="B198">
+        <v>12</v>
+      </c>
+      <c r="C198">
+        <v>7</v>
+      </c>
+      <c r="D198">
+        <v>4</v>
+      </c>
+      <c r="E198">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="2:5">
+      <c r="B199">
+        <v>8</v>
+      </c>
+      <c r="C199">
+        <v>6</v>
+      </c>
+      <c r="D199">
+        <v>3</v>
+      </c>
+      <c r="E199">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200" spans="2:5">
+      <c r="B200">
+        <v>8</v>
+      </c>
+      <c r="C200">
+        <v>4</v>
+      </c>
+      <c r="D200">
+        <v>8</v>
+      </c>
+      <c r="E200">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="201" spans="2:5">
+      <c r="B201">
+        <v>4</v>
+      </c>
+      <c r="C201">
+        <v>3</v>
+      </c>
+      <c r="D201">
+        <v>11</v>
+      </c>
+      <c r="E201">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202" spans="2:5">
+      <c r="B202">
+        <v>3</v>
+      </c>
+      <c r="C202">
+        <v>8</v>
+      </c>
+      <c r="D202">
+        <v>7</v>
+      </c>
+      <c r="E202">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="203" spans="2:5">
+      <c r="B203">
+        <v>10</v>
+      </c>
+      <c r="C203">
+        <v>2</v>
+      </c>
+      <c r="D203">
+        <v>1</v>
+      </c>
+      <c r="E203">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="204" spans="2:5">
+      <c r="B204">
+        <v>4</v>
+      </c>
+      <c r="C204">
+        <v>2</v>
+      </c>
+      <c r="D204">
+        <v>7</v>
+      </c>
+      <c r="E204">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="205" spans="2:5">
+      <c r="B205">
+        <v>3</v>
+      </c>
+      <c r="C205">
+        <v>6</v>
+      </c>
+      <c r="D205">
+        <v>9</v>
+      </c>
+      <c r="E205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="2:5">
+      <c r="B206">
+        <v>5</v>
+      </c>
+      <c r="C206">
+        <v>9</v>
+      </c>
+      <c r="D206">
+        <v>7</v>
+      </c>
+      <c r="E206">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="207" spans="2:5">
+      <c r="B207">
+        <v>4</v>
+      </c>
+      <c r="C207">
+        <v>4</v>
+      </c>
+      <c r="D207">
+        <v>4</v>
+      </c>
+      <c r="E207">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="208" spans="2:5">
+      <c r="B208">
+        <v>3</v>
+      </c>
+      <c r="C208">
+        <v>3</v>
+      </c>
+      <c r="D208">
+        <v>3</v>
+      </c>
+      <c r="E208">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209" spans="2:5">
+      <c r="B209">
+        <v>8</v>
+      </c>
+      <c r="C209">
+        <v>4</v>
+      </c>
+      <c r="D209">
+        <v>6</v>
+      </c>
+      <c r="E209">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="210" spans="2:5">
+      <c r="B210">
+        <v>8</v>
+      </c>
+      <c r="C210">
+        <v>8</v>
+      </c>
+      <c r="D210">
+        <v>7</v>
+      </c>
+      <c r="E210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="2:5">
+      <c r="B211">
+        <v>4</v>
+      </c>
+      <c r="C211">
+        <v>8</v>
+      </c>
+      <c r="D211">
+        <v>4</v>
+      </c>
+      <c r="E211">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="212" spans="2:5">
+      <c r="B212">
+        <v>3</v>
+      </c>
+      <c r="C212">
+        <v>7</v>
+      </c>
+      <c r="D212">
+        <v>3</v>
+      </c>
+      <c r="E212">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="213" spans="2:5">
+      <c r="B213">
+        <v>4</v>
+      </c>
+      <c r="C213">
+        <v>4</v>
+      </c>
+      <c r="D213">
+        <v>10</v>
+      </c>
+      <c r="E213">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="214" spans="2:5">
+      <c r="B214">
+        <v>3</v>
+      </c>
+      <c r="C214">
+        <v>3</v>
+      </c>
+      <c r="D214">
+        <v>10</v>
+      </c>
+      <c r="E214">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="215" spans="2:5">
+      <c r="B215">
+        <v>5</v>
+      </c>
+      <c r="C215">
+        <v>5</v>
+      </c>
+      <c r="D215">
+        <v>2</v>
+      </c>
+      <c r="E215">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="216" spans="2:5">
+      <c r="B216">
+        <v>11</v>
+      </c>
+      <c r="C216">
+        <v>2</v>
+      </c>
+      <c r="D216">
+        <v>8</v>
+      </c>
+      <c r="E216">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="217" spans="2:5">
+      <c r="B217">
+        <v>5</v>
+      </c>
+      <c r="C217">
+        <v>2</v>
+      </c>
+      <c r="D217">
+        <v>4</v>
+      </c>
+      <c r="E217">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="218" spans="2:5">
+      <c r="B218">
+        <v>6</v>
+      </c>
+      <c r="C218">
+        <v>2</v>
+      </c>
+      <c r="D218">
+        <v>10</v>
+      </c>
+      <c r="E218">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="219" spans="2:5">
+      <c r="B219">
+        <v>10</v>
+      </c>
+      <c r="C219">
+        <v>6</v>
+      </c>
+      <c r="D219">
+        <v>5</v>
+      </c>
+      <c r="E219">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="220" spans="2:5">
+      <c r="B220">
+        <v>2</v>
+      </c>
+      <c r="C220">
+        <v>9</v>
+      </c>
+      <c r="D220">
+        <v>3</v>
+      </c>
+      <c r="E220">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="221" spans="2:5">
+      <c r="B221">
+        <v>2</v>
+      </c>
+      <c r="C221">
+        <v>4</v>
+      </c>
+      <c r="D221">
+        <v>4</v>
+      </c>
+      <c r="E221">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222" spans="2:5">
+      <c r="B222">
+        <v>7</v>
+      </c>
+      <c r="C222">
+        <v>3</v>
+      </c>
+      <c r="D222">
+        <v>3</v>
+      </c>
+      <c r="E222">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" spans="2:5">
+      <c r="B223">
+        <v>11</v>
+      </c>
+      <c r="C223">
+        <v>5</v>
+      </c>
+      <c r="D223">
+        <v>9</v>
+      </c>
+      <c r="E223">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" spans="2:5">
+      <c r="B224">
+        <v>7</v>
+      </c>
+      <c r="C224">
+        <v>8</v>
+      </c>
+      <c r="D224">
+        <v>5</v>
+      </c>
+      <c r="E224">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="225" spans="2:5">
+      <c r="B225">
+        <v>8</v>
+      </c>
+      <c r="C225">
+        <v>4</v>
+      </c>
+      <c r="D225">
+        <v>2</v>
+      </c>
+      <c r="E225">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="226" spans="2:5">
+      <c r="B226">
+        <v>4</v>
+      </c>
+      <c r="C226">
+        <v>3</v>
+      </c>
+      <c r="D226">
+        <v>2</v>
+      </c>
+      <c r="E226">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="227" spans="2:5">
+      <c r="B227">
+        <v>3</v>
+      </c>
+      <c r="C227">
+        <v>4</v>
+      </c>
+      <c r="D227">
+        <v>8</v>
+      </c>
+      <c r="E227">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="228" spans="2:5">
+      <c r="B228">
+        <v>10</v>
+      </c>
+      <c r="C228">
+        <v>3</v>
+      </c>
+      <c r="D228">
+        <v>1</v>
+      </c>
+      <c r="E228">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="229" spans="2:5">
+      <c r="B229">
+        <v>4</v>
+      </c>
+      <c r="C229">
+        <v>5</v>
+      </c>
+      <c r="D229">
+        <v>5</v>
+      </c>
+      <c r="E229">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="230" spans="2:5">
+      <c r="B230">
+        <v>3</v>
+      </c>
+      <c r="C230">
+        <v>2</v>
+      </c>
+      <c r="D230">
+        <v>3</v>
+      </c>
+      <c r="E230">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="231" spans="2:5">
+      <c r="B231">
+        <v>5</v>
+      </c>
+      <c r="C231">
+        <v>8</v>
+      </c>
+      <c r="D231">
+        <v>4</v>
+      </c>
+      <c r="E231">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="232" spans="2:5">
+      <c r="B232">
+        <v>4</v>
+      </c>
+      <c r="C232">
+        <v>5</v>
+      </c>
+      <c r="D232">
+        <v>3</v>
+      </c>
+      <c r="E232">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="233" spans="2:5">
+      <c r="B233">
+        <v>3</v>
+      </c>
+      <c r="C233">
+        <v>3</v>
+      </c>
+      <c r="D233">
+        <v>4</v>
+      </c>
+      <c r="E233">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="234" spans="2:5">
+      <c r="B234">
+        <v>8</v>
+      </c>
+      <c r="C234">
+        <v>4</v>
+      </c>
+      <c r="D234">
+        <v>7</v>
+      </c>
+      <c r="E234">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="235" spans="2:5">
+      <c r="B235">
+        <v>8</v>
+      </c>
+      <c r="C235">
+        <v>3</v>
+      </c>
+      <c r="D235">
+        <v>5</v>
+      </c>
+      <c r="E235">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236" spans="2:5">
+      <c r="B236">
+        <v>4</v>
+      </c>
+      <c r="C236">
+        <v>7</v>
+      </c>
+      <c r="D236">
+        <v>3</v>
+      </c>
+      <c r="E236">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="237" spans="2:5">
+      <c r="B237">
+        <v>3</v>
+      </c>
+      <c r="C237">
+        <v>5</v>
+      </c>
+      <c r="D237">
+        <v>4</v>
+      </c>
+      <c r="E237">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238" spans="2:5">
+      <c r="B238">
+        <v>4</v>
+      </c>
+      <c r="C238">
+        <v>11</v>
+      </c>
+      <c r="D238">
+        <v>5</v>
+      </c>
+      <c r="E238">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="239" spans="2:5">
+      <c r="B239">
+        <v>3</v>
+      </c>
+      <c r="C239">
+        <v>8</v>
+      </c>
+      <c r="D239">
+        <v>8</v>
+      </c>
+      <c r="E239">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="240" spans="2:5">
+      <c r="B240">
+        <v>5</v>
+      </c>
+      <c r="C240">
+        <v>2</v>
+      </c>
+      <c r="D240">
+        <v>12</v>
+      </c>
+      <c r="E240">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="241" spans="2:5">
+      <c r="B241">
+        <v>2</v>
+      </c>
+      <c r="C241">
+        <v>2</v>
+      </c>
+      <c r="D241">
+        <v>9</v>
+      </c>
+      <c r="E241">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="242" spans="2:5">
+      <c r="B242">
+        <v>5</v>
+      </c>
+      <c r="C242">
+        <v>10</v>
+      </c>
+      <c r="D242">
+        <v>7</v>
+      </c>
+      <c r="E242">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="243" spans="2:5">
+      <c r="B243">
+        <v>1</v>
+      </c>
+      <c r="C243">
+        <v>9</v>
+      </c>
+      <c r="D243">
+        <v>6</v>
+      </c>
+      <c r="E243">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="244" spans="2:5">
+      <c r="B244">
+        <v>10</v>
+      </c>
+      <c r="C244">
+        <v>3</v>
+      </c>
+      <c r="D244">
+        <v>2</v>
+      </c>
+      <c r="E244">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="245" spans="2:5">
+      <c r="B245">
+        <v>2</v>
+      </c>
+      <c r="C245">
+        <v>4</v>
+      </c>
+      <c r="D245">
+        <v>2</v>
+      </c>
+      <c r="E245">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="246" spans="2:5">
+      <c r="B246">
+        <v>2</v>
+      </c>
+      <c r="C246">
+        <v>3</v>
+      </c>
+      <c r="D246">
+        <v>9</v>
+      </c>
+      <c r="E246">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="247" spans="2:5">
+      <c r="B247">
+        <v>7</v>
+      </c>
+      <c r="C247">
+        <v>4</v>
+      </c>
+      <c r="D247">
+        <v>5</v>
+      </c>
+      <c r="E247">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="248" spans="2:5">
+      <c r="B248">
+        <v>8</v>
+      </c>
+      <c r="C248">
+        <v>5</v>
+      </c>
+      <c r="D248">
+        <v>6</v>
+      </c>
+      <c r="E248">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="249" spans="2:5">
+      <c r="B249">
+        <v>7</v>
+      </c>
+      <c r="C249">
+        <v>10</v>
+      </c>
+      <c r="D249">
+        <v>2</v>
+      </c>
+      <c r="E249">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="250" spans="2:5">
+      <c r="B250">
+        <v>3</v>
+      </c>
+      <c r="C250">
+        <v>1</v>
+      </c>
+      <c r="D250">
+        <v>2</v>
+      </c>
+      <c r="E250">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="251" spans="2:5">
+      <c r="B251">
+        <v>9</v>
+      </c>
+      <c r="C251">
+        <v>5</v>
+      </c>
+      <c r="D251">
+        <v>2</v>
+      </c>
+      <c r="E251">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="252" spans="2:5">
+      <c r="B252">
+        <v>9</v>
+      </c>
+      <c r="C252">
+        <v>8</v>
+      </c>
+      <c r="D252">
+        <v>9</v>
+      </c>
+      <c r="E252">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="253" spans="2:5">
+      <c r="B253">
+        <v>8</v>
+      </c>
+      <c r="C253">
+        <v>12</v>
+      </c>
+      <c r="D253">
+        <v>4</v>
+      </c>
+      <c r="E253">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="254" spans="2:5">
+      <c r="B254">
+        <v>3</v>
+      </c>
+      <c r="C254">
+        <v>10</v>
+      </c>
+      <c r="D254">
+        <v>3</v>
+      </c>
+      <c r="E254">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="255" spans="2:5">
+      <c r="B255">
+        <v>4</v>
+      </c>
+      <c r="C255">
+        <v>3</v>
+      </c>
+      <c r="D255">
+        <v>8</v>
+      </c>
+      <c r="E255">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="256" spans="2:5">
+      <c r="B256">
+        <v>3</v>
+      </c>
+      <c r="C256">
+        <v>4</v>
+      </c>
+      <c r="D256">
+        <v>2</v>
+      </c>
+      <c r="E256">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="257" spans="2:4">
+      <c r="B257">
+        <v>4</v>
+      </c>
+      <c r="C257">
+        <v>3</v>
+      </c>
+      <c r="D257">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="258" spans="2:4">
+      <c r="B258">
+        <v>7</v>
+      </c>
+      <c r="C258">
+        <v>4</v>
+      </c>
+      <c r="D258">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="259" spans="2:4">
+      <c r="B259">
+        <v>10</v>
+      </c>
+      <c r="C259">
+        <v>8</v>
+      </c>
+      <c r="D259">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="260" spans="2:4">
+      <c r="B260">
+        <v>3</v>
+      </c>
+      <c r="C260">
+        <v>9</v>
+      </c>
+      <c r="D260">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="261" spans="2:4">
+      <c r="B261">
+        <v>4</v>
+      </c>
+      <c r="C261">
+        <v>3</v>
+      </c>
+      <c r="D261">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="262" spans="2:4">
+      <c r="B262">
+        <v>5</v>
+      </c>
+      <c r="C262">
+        <v>4</v>
+      </c>
+      <c r="D262">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="263" spans="2:4">
+      <c r="B263">
+        <v>5</v>
+      </c>
+      <c r="C263">
+        <v>3</v>
+      </c>
+      <c r="D263">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="264" spans="2:4">
+      <c r="B264">
+        <v>2</v>
+      </c>
+      <c r="C264">
+        <v>8</v>
+      </c>
+      <c r="D264">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="265" spans="2:4">
+      <c r="B265">
+        <v>2</v>
+      </c>
+      <c r="C265">
+        <v>6</v>
+      </c>
+      <c r="D265">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="266" spans="2:4">
+      <c r="B266">
+        <v>2</v>
+      </c>
+      <c r="C266">
+        <v>11</v>
+      </c>
+      <c r="D266">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="267" spans="2:4">
+      <c r="B267">
+        <v>7</v>
+      </c>
+      <c r="C267">
+        <v>7</v>
+      </c>
+      <c r="D267">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="268" spans="2:4">
+      <c r="B268">
+        <v>4</v>
+      </c>
+      <c r="C268">
+        <v>1</v>
+      </c>
+      <c r="D268">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="269" spans="2:4">
+      <c r="B269">
+        <v>3</v>
+      </c>
+      <c r="C269">
+        <v>5</v>
+      </c>
+      <c r="D269">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="270" spans="2:4">
+      <c r="B270">
+        <v>10</v>
+      </c>
+      <c r="C270">
+        <v>5</v>
+      </c>
+      <c r="D270">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="271" spans="2:4">
+      <c r="B271">
+        <v>5</v>
+      </c>
+      <c r="C271">
+        <v>8</v>
+      </c>
+      <c r="D271">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="272" spans="2:4">
+      <c r="B272">
+        <v>9</v>
+      </c>
+      <c r="C272">
+        <v>5</v>
+      </c>
+      <c r="D272">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="273" spans="2:4">
+      <c r="B273">
+        <v>2</v>
+      </c>
+      <c r="C273">
+        <v>4</v>
+      </c>
+      <c r="D273">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="274" spans="2:4">
+      <c r="B274">
+        <v>2</v>
+      </c>
+      <c r="C274">
+        <v>3</v>
+      </c>
+      <c r="D274">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="275" spans="2:4">
+      <c r="B275">
+        <v>2</v>
+      </c>
+      <c r="C275">
+        <v>7</v>
+      </c>
+      <c r="D275">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="276" spans="2:4">
+      <c r="B276">
+        <v>5</v>
+      </c>
+      <c r="C276">
+        <v>6</v>
+      </c>
+      <c r="D276">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="277" spans="2:4">
+      <c r="B277">
+        <v>10</v>
+      </c>
+      <c r="C277">
+        <v>4</v>
+      </c>
+      <c r="D277">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="278" spans="2:4">
+      <c r="B278">
+        <v>1</v>
+      </c>
+      <c r="C278">
+        <v>3</v>
+      </c>
+      <c r="D278">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="279" spans="2:4">
+      <c r="B279">
+        <v>8</v>
+      </c>
+      <c r="C279">
+        <v>8</v>
+      </c>
+      <c r="D279">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="280" spans="2:4">
+      <c r="B280">
+        <v>8</v>
+      </c>
+      <c r="C280">
+        <v>7</v>
+      </c>
+      <c r="D280">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="281" spans="2:4">
+      <c r="B281">
+        <v>4</v>
+      </c>
+      <c r="C281">
+        <v>11</v>
+      </c>
+      <c r="D281">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="282" spans="2:4">
+      <c r="B282">
+        <v>3</v>
+      </c>
+      <c r="C282">
+        <v>6</v>
+      </c>
+      <c r="D282">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="283" spans="2:4">
+      <c r="B283">
+        <v>10</v>
+      </c>
+      <c r="C283">
+        <v>9</v>
+      </c>
+      <c r="D283">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="284" spans="2:4">
+      <c r="B284">
+        <v>4</v>
+      </c>
+      <c r="C284">
+        <v>4</v>
+      </c>
+      <c r="D284">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="285" spans="2:4">
+      <c r="B285">
+        <v>3</v>
+      </c>
+      <c r="C285">
+        <v>3</v>
+      </c>
+      <c r="D285">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="286" spans="2:4">
+      <c r="B286">
+        <v>5</v>
+      </c>
+      <c r="C286">
+        <v>4</v>
+      </c>
+      <c r="D286">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="287" spans="2:4">
+      <c r="B287">
+        <v>4</v>
+      </c>
+      <c r="C287">
+        <v>8</v>
+      </c>
+      <c r="D287">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="288" spans="2:4">
+      <c r="B288">
+        <v>3</v>
+      </c>
+      <c r="C288">
+        <v>5</v>
+      </c>
+      <c r="D288">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="289" spans="2:4">
+      <c r="B289">
+        <v>8</v>
+      </c>
+      <c r="C289">
+        <v>7</v>
+      </c>
+      <c r="D289">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="290" spans="2:4">
+      <c r="B290">
+        <v>8</v>
+      </c>
+      <c r="C290">
+        <v>4</v>
+      </c>
+      <c r="D290">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="291" spans="2:4">
+      <c r="B291">
+        <v>4</v>
+      </c>
+      <c r="C291">
+        <v>3</v>
+      </c>
+      <c r="D291">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="292" spans="2:4">
+      <c r="B292">
+        <v>3</v>
+      </c>
+      <c r="C292">
+        <v>5</v>
+      </c>
+      <c r="D292">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="293" spans="2:4">
+      <c r="B293">
+        <v>4</v>
+      </c>
+      <c r="C293">
+        <v>2</v>
+      </c>
+      <c r="D293">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="294" spans="2:4">
+      <c r="B294">
+        <v>3</v>
+      </c>
+      <c r="C294">
+        <v>2</v>
+      </c>
+      <c r="D294">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="295" spans="2:4">
+      <c r="B295">
+        <v>5</v>
+      </c>
+      <c r="C295">
+        <v>2</v>
+      </c>
+      <c r="D295">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="296" spans="2:4">
+      <c r="B296">
+        <v>2</v>
+      </c>
+      <c r="C296">
+        <v>6</v>
+      </c>
+      <c r="D296">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="297" spans="2:4">
+      <c r="B297">
+        <v>5</v>
+      </c>
+      <c r="C297">
+        <v>9</v>
+      </c>
+      <c r="D297">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="298" spans="2:4">
+      <c r="B298">
+        <v>6</v>
+      </c>
+      <c r="C298">
+        <v>4</v>
+      </c>
+      <c r="D298">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="299" spans="2:4">
+      <c r="B299">
+        <v>10</v>
+      </c>
+      <c r="C299">
+        <v>3</v>
+      </c>
+      <c r="D299">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="300" spans="2:4">
+      <c r="B300">
+        <v>2</v>
+      </c>
+      <c r="C300">
+        <v>5</v>
+      </c>
+      <c r="D300">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="301" spans="2:4">
+      <c r="B301">
+        <v>2</v>
+      </c>
+      <c r="C301">
+        <v>8</v>
+      </c>
+      <c r="D301">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="302" spans="2:4">
+      <c r="B302">
+        <v>7</v>
+      </c>
+      <c r="C302">
+        <v>4</v>
+      </c>
+      <c r="D302">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="303" spans="2:4">
+      <c r="B303">
+        <v>8</v>
+      </c>
+      <c r="C303">
+        <v>3</v>
+      </c>
+      <c r="D303">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="304" spans="2:4">
+      <c r="B304">
+        <v>7</v>
+      </c>
+      <c r="C304">
+        <v>4</v>
+      </c>
+      <c r="D304">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="305" spans="2:4">
+      <c r="B305">
+        <v>8</v>
+      </c>
+      <c r="C305">
+        <v>3</v>
+      </c>
+      <c r="D305">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="306" spans="2:4">
+      <c r="B306">
+        <v>4</v>
+      </c>
+      <c r="C306">
+        <v>5</v>
+      </c>
+      <c r="D306">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="307" spans="2:4">
+      <c r="B307">
+        <v>3</v>
+      </c>
+      <c r="C307">
+        <v>2</v>
+      </c>
+      <c r="D307">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="308" spans="2:4">
+      <c r="B308">
+        <v>10</v>
+      </c>
+      <c r="C308">
+        <v>8</v>
+      </c>
+      <c r="D308">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="309" spans="2:4">
+      <c r="B309">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="310" spans="2:4">
+      <c r="B310">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="311" spans="2:4">
+      <c r="B311">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="312" spans="2:4">
+      <c r="B312">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="313" spans="2:4">
+      <c r="B313">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="314" spans="2:4">
+      <c r="B314">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="315" spans="2:4">
+      <c r="B315">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="316" spans="2:4">
+      <c r="B316">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="317" spans="2:4">
+      <c r="B317">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="318" spans="2:4">
+      <c r="B318">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="319" spans="2:4">
+      <c r="B319">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="320" spans="2:4">
+      <c r="B320">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="321" spans="2:2">
+      <c r="B321">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="322" spans="2:2">
+      <c r="B322">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="323" spans="2:2">
+      <c r="B323">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="324" spans="2:2">
+      <c r="B324">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="325" spans="2:2">
+      <c r="B325">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="326" spans="2:2">
+      <c r="B326">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="327" spans="2:2">
+      <c r="B327">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="328" spans="2:2">
+      <c r="B328">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>